--- a/Plans/Plan.xlsx
+++ b/Plans/Plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacab\Desktop\Projects\Passion Projects\Vino Application\WineApplication\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacab\Desktop\Projects\Passion Projects\Vino Application\WineApplication\Plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87990756-183A-42E4-9CAB-490C268B28C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E03B7-F995-4EBF-9700-D4F6A3AA27FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{01E597C0-997B-4AAE-8DAE-CB8C4622825F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>HTTP method</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Wine Table</t>
+  </si>
+  <si>
+    <t>/wine/:name</t>
   </si>
 </sst>
 </file>
@@ -394,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -402,25 +405,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,19 +441,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,13 +774,13 @@
   <dimension ref="B1:AC11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
@@ -805,111 +804,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
     </row>
     <row r="2" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="P2" s="8"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+      <c r="AB2" s="7"/>
+      <c r="AC2" s="7"/>
     </row>
     <row r="3" spans="2:29" ht="18" x14ac:dyDescent="0.3">
-      <c r="P3" s="9"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="20" t="s">
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="X3" s="14"/>
+      <c r="X3" s="11"/>
       <c r="Y3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
       <c r="AB3" s="18"/>
-      <c r="AC3" s="11"/>
+      <c r="AC3" s="8"/>
     </row>
     <row r="4" spans="2:29" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="21" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="12" t="s">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="12" t="s">
+      <c r="R4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="12" t="s">
+      <c r="S4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="12" t="s">
+      <c r="T4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="U4" s="12" t="s">
+      <c r="U4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="17"/>
-      <c r="W4" s="20" t="s">
+      <c r="V4" s="14"/>
+      <c r="W4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="12" t="s">
+      <c r="X4" s="12"/>
+      <c r="Y4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="12" t="s">
+      <c r="Z4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="12" t="s">
+      <c r="AA4" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="AB4" s="12" t="s">
+      <c r="AB4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AC4" s="12" t="s">
+      <c r="AC4" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -951,40 +949,40 @@
         <v>5</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="11" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="R5" s="11" t="s">
+      <c r="R5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="11" t="s">
+      <c r="S5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="11" t="s">
+      <c r="T5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="16"/>
-      <c r="W5" s="20" t="s">
+      <c r="V5" s="13"/>
+      <c r="W5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="11" t="s">
+      <c r="X5" s="10"/>
+      <c r="Y5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="11" t="s">
+      <c r="AC5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1026,20 +1024,19 @@
         <v>50</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
-      <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
     </row>
     <row r="7" spans="2:29" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
@@ -1079,27 +1076,26 @@
         <v>49</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
-      <c r="AB7" s="10"/>
-      <c r="AC7" s="10"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
     </row>
     <row r="8" spans="2:29" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>7</v>
